--- a/data/weights.xlsx
+++ b/data/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E96C1B1-2449-459F-B751-059C105C8E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516CD931-6410-43B5-83D2-FF12C94BC2B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{1556AE39-1ADD-4B06-86A6-EDAC1302B271}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1556AE39-1ADD-4B06-86A6-EDAC1302B271}"/>
   </bookViews>
   <sheets>
     <sheet name="weights" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Asset/Liability</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Ultra 30-Year UST Futures</t>
+  </si>
+  <si>
+    <t>Equity Hedges</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCA4944-66DB-485D-8CD8-1B5FFDBB6057}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,6 +2894,28 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
